--- a/SP_Sklad/Rep/OrderedMat(28).xlsx
+++ b/SP_Sklad/Rep/OrderedMat(28).xlsx
@@ -9,7 +9,7 @@
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName name="MatGroup">Лист1!$A$10:$I$22</definedName>
+    <definedName name="MatGroup">Лист1!$A$10:$I$31</definedName>
     <definedName name="MatInDet">Лист1!#REF!</definedName>
     <definedName name="range1">Лист1!#REF!</definedName>
     <definedName name="sectionPrice">Лист1!#REF!</definedName>
@@ -55,6 +55,27 @@
     <t>Cума</t>
   </si>
   <si>
+    <t>Яловичина</t>
+  </si>
+  <si>
+    <t>102</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Яловичина  1 сотру</t>
+  </si>
+  <si>
+    <t>кг.</t>
+  </si>
+  <si>
+    <t>103</t>
+  </si>
+  <si>
+    <t>Яловичина 2с.</t>
+  </si>
+  <si>
+    <t>Разом по катогорії:</t>
+  </si>
+  <si>
     <t xml:space="preserve">Допоміжні матеріали </t>
   </si>
   <si>
@@ -64,16 +85,19 @@
     <t>Емульсія свинної шкури</t>
   </si>
   <si>
-    <t>кг.</t>
-  </si>
-  <si>
     <t>119</t>
   </si>
   <si>
     <t xml:space="preserve">Жилка </t>
   </si>
   <si>
-    <t>Разом по катогорії:</t>
+    <t>Сосиски та сардельки</t>
+  </si>
+  <si>
+    <t>34</t>
+  </si>
+  <si>
+    <t>Софієвські 1.с". Сардельки</t>
   </si>
   <si>
     <t>Сало та жири</t>
@@ -1133,14 +1157,14 @@
         <v>14</v>
       </c>
       <c r="G12" s="33">
-        <v>1</v>
+        <v>10</v>
       </c>
       <c r="H12" s="34">
         <f>I12/G12</f>
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="I12" s="35">
-        <v>6</v>
+        <v>130</v>
       </c>
     </row>
     <row r="13" ht="12.75" customHeight="1">
@@ -1156,14 +1180,14 @@
         <v>14</v>
       </c>
       <c r="G13" s="33">
-        <v>1</v>
+        <v>15</v>
       </c>
       <c r="H13" s="34">
         <f>I13/G13</f>
-        <v>7</v>
+        <v>1.3278000000000001</v>
       </c>
       <c r="I13" s="35">
-        <v>7</v>
+        <v>19.917000000000002</v>
       </c>
     </row>
     <row r="14" ht="12.75" customHeight="1">
@@ -1178,7 +1202,7 @@
       <c r="H14" s="40"/>
       <c r="I14" s="41">
         <f>SUM(I12:I13)</f>
-        <v>13</v>
+        <v>149.917</v>
       </c>
     </row>
     <row r="15" ht="9" customHeight="1">
@@ -1220,147 +1244,281 @@
       </c>
       <c r="H17" s="34">
         <f>I17/G17</f>
+        <v>6</v>
+      </c>
+      <c r="I17" s="35">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="18" ht="12.75" customHeight="1">
+      <c r="B18" s="28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="29" t="s">
+        <v>22</v>
+      </c>
+      <c r="D18" s="30"/>
+      <c r="E18" s="31"/>
+      <c r="F18" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G18" s="33">
+        <v>1</v>
+      </c>
+      <c r="H18" s="34">
+        <f>I18/G18</f>
+        <v>7</v>
+      </c>
+      <c r="I18" s="35">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19" ht="12.75" customHeight="1">
+      <c r="B19" s="36"/>
+      <c r="C19" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D19" s="38"/>
+      <c r="E19" s="38"/>
+      <c r="F19" s="39"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="41">
+        <f>SUM(I17:I18)</f>
+        <v>13</v>
+      </c>
+    </row>
+    <row r="20" ht="9" customHeight="1">
+      <c r="B20" s="22"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23"/>
+      <c r="H20" s="23"/>
+      <c r="I20" s="24"/>
+    </row>
+    <row r="21" ht="12.75" customHeight="1">
+      <c r="B21" s="25" t="s">
+        <v>23</v>
+      </c>
+      <c r="C21" s="26"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="27"/>
+    </row>
+    <row r="22" ht="12.75" customHeight="1">
+      <c r="B22" s="28" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" s="29" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" s="30"/>
+      <c r="E22" s="31"/>
+      <c r="F22" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G22" s="33">
+        <v>100</v>
+      </c>
+      <c r="H22" s="34">
+        <f>I22/G22</f>
+        <v>12</v>
+      </c>
+      <c r="I22" s="35">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="23" ht="12.75" customHeight="1">
+      <c r="B23" s="36"/>
+      <c r="C23" s="37" t="s">
+        <v>17</v>
+      </c>
+      <c r="D23" s="38"/>
+      <c r="E23" s="38"/>
+      <c r="F23" s="39"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="41">
+        <f>SUM(I22)</f>
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="24" ht="9" customHeight="1">
+      <c r="B24" s="22"/>
+      <c r="C24" s="23"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="23"/>
+      <c r="F24" s="23"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="23"/>
+      <c r="I24" s="24"/>
+    </row>
+    <row r="25" ht="12.75" customHeight="1">
+      <c r="B25" s="25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="27"/>
+    </row>
+    <row r="26" ht="12.75" customHeight="1">
+      <c r="B26" s="28" t="s">
+        <v>27</v>
+      </c>
+      <c r="C26" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="D26" s="30"/>
+      <c r="E26" s="31"/>
+      <c r="F26" s="32" t="s">
+        <v>14</v>
+      </c>
+      <c r="G26" s="33">
+        <v>1</v>
+      </c>
+      <c r="H26" s="34">
+        <f>I26/G26</f>
         <v>4</v>
       </c>
-      <c r="I17" s="35">
+      <c r="I26" s="35">
         <v>4</v>
       </c>
     </row>
-    <row r="18" ht="12.75" customHeight="1">
-      <c r="B18" s="36"/>
-      <c r="C18" s="37" t="s">
+    <row r="27" ht="12.75" customHeight="1">
+      <c r="B27" s="36"/>
+      <c r="C27" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D18" s="38"/>
-      <c r="E18" s="38"/>
-      <c r="F18" s="39"/>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="41">
-        <f>SUM(I17)</f>
+      <c r="D27" s="38"/>
+      <c r="E27" s="38"/>
+      <c r="F27" s="39"/>
+      <c r="G27" s="40"/>
+      <c r="H27" s="40"/>
+      <c r="I27" s="41">
+        <f>SUM(I26)</f>
         <v>4</v>
       </c>
     </row>
-    <row r="19" ht="9" customHeight="1">
-      <c r="B19" s="22"/>
-      <c r="C19" s="23"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="24"/>
-    </row>
-    <row r="20" ht="12.75" customHeight="1">
-      <c r="B20" s="25" t="s">
-        <v>21</v>
-      </c>
-      <c r="C20" s="26"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="27"/>
-    </row>
-    <row r="21" ht="12.75" customHeight="1">
-      <c r="B21" s="28" t="s">
-        <v>22</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>23</v>
-      </c>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="32" t="s">
+    <row r="28" ht="9" customHeight="1">
+      <c r="B28" s="22"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="24"/>
+    </row>
+    <row r="29" ht="12.75" customHeight="1">
+      <c r="B29" s="25" t="s">
+        <v>29</v>
+      </c>
+      <c r="C29" s="26"/>
+      <c r="D29" s="26"/>
+      <c r="E29" s="26"/>
+      <c r="F29" s="26"/>
+      <c r="G29" s="26"/>
+      <c r="H29" s="26"/>
+      <c r="I29" s="27"/>
+    </row>
+    <row r="30" ht="12.75" customHeight="1">
+      <c r="B30" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>31</v>
+      </c>
+      <c r="D30" s="30"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="G21" s="33">
+      <c r="G30" s="33">
         <v>1</v>
       </c>
-      <c r="H21" s="34">
-        <f>I21/G21</f>
+      <c r="H30" s="34">
+        <f>I30/G30</f>
         <v>5</v>
       </c>
-      <c r="I21" s="35">
+      <c r="I30" s="35">
         <v>5</v>
       </c>
     </row>
-    <row r="22" ht="12.75" customHeight="1">
-      <c r="B22" s="36"/>
-      <c r="C22" s="37" t="s">
+    <row r="31" ht="12.75" customHeight="1">
+      <c r="B31" s="36"/>
+      <c r="C31" s="37" t="s">
         <v>17</v>
       </c>
-      <c r="D22" s="38"/>
-      <c r="E22" s="38"/>
-      <c r="F22" s="39"/>
-      <c r="G22" s="40"/>
-      <c r="H22" s="40"/>
-      <c r="I22" s="41">
-        <f>SUM(I21)</f>
+      <c r="D31" s="38"/>
+      <c r="E31" s="38"/>
+      <c r="F31" s="39"/>
+      <c r="G31" s="40"/>
+      <c r="H31" s="40"/>
+      <c r="I31" s="41">
+        <f>SUM(I30)</f>
         <v>5</v>
       </c>
     </row>
-    <row r="23" ht="12.75" customHeight="1">
-      <c r="B23" s="42"/>
-      <c r="D23" s="43"/>
-      <c r="E23" s="43"/>
-      <c r="F23" s="44"/>
-      <c r="G23" s="44"/>
-      <c r="H23" s="44"/>
-      <c r="I23" s="44"/>
-    </row>
-    <row r="24" ht="12.75" customHeight="1">
-      <c r="B24" s="45"/>
-      <c r="C24" s="46" t="s">
-        <v>24</v>
-      </c>
-      <c r="D24" s="47"/>
-      <c r="E24" s="47"/>
-      <c r="F24" s="48"/>
-      <c r="G24" s="49"/>
-      <c r="H24" s="49"/>
-      <c r="I24" s="50"/>
-    </row>
-    <row r="25" ht="12.75" customHeight="1">
-      <c r="B25" s="51"/>
-      <c r="C25" s="52"/>
-      <c r="D25" s="51"/>
-      <c r="E25" s="51"/>
-      <c r="F25" s="53"/>
-      <c r="G25" s="53"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="53"/>
-    </row>
-    <row r="26" ht="12.75" customHeight="1">
-      <c r="G26" s="51"/>
-      <c r="H26" s="51"/>
-      <c r="I26" s="51"/>
-    </row>
-    <row r="27" ht="12.75" customHeight="1">
-      <c r="B27" s="54"/>
-      <c r="C27" s="54"/>
-      <c r="D27" s="54"/>
-      <c r="E27" s="54"/>
-      <c r="F27" s="54"/>
-      <c r="G27" s="53"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="53"/>
-    </row>
-    <row r="28" ht="12.75" customHeight="1">
-      <c r="G28" s="53"/>
-      <c r="H28" s="53"/>
-      <c r="I28" s="53"/>
-    </row>
-    <row r="29" ht="12.75" customHeight="1"/>
-    <row r="30" ht="12.75" customHeight="1"/>
-    <row r="31" ht="12.75" customHeight="1"/>
-    <row r="32" ht="12.75" customHeight="1"/>
-    <row r="33" ht="12.75" customHeight="1"/>
-    <row r="34" ht="12.75" customHeight="1"/>
-    <row r="35" ht="12.75" customHeight="1"/>
-    <row r="36" ht="12.75" customHeight="1"/>
-    <row r="37" ht="12.75" customHeight="1"/>
+    <row r="32" ht="12.75" customHeight="1">
+      <c r="B32" s="42"/>
+      <c r="D32" s="43"/>
+      <c r="E32" s="43"/>
+      <c r="F32" s="44"/>
+      <c r="G32" s="44"/>
+      <c r="H32" s="44"/>
+      <c r="I32" s="44"/>
+    </row>
+    <row r="33" ht="12.75" customHeight="1">
+      <c r="B33" s="45"/>
+      <c r="C33" s="46" t="s">
+        <v>32</v>
+      </c>
+      <c r="D33" s="47"/>
+      <c r="E33" s="47"/>
+      <c r="F33" s="48"/>
+      <c r="G33" s="49"/>
+      <c r="H33" s="49"/>
+      <c r="I33" s="50"/>
+    </row>
+    <row r="34" ht="12.75" customHeight="1">
+      <c r="B34" s="51"/>
+      <c r="C34" s="52"/>
+      <c r="D34" s="51"/>
+      <c r="E34" s="51"/>
+      <c r="F34" s="53"/>
+      <c r="G34" s="53"/>
+      <c r="H34" s="53"/>
+      <c r="I34" s="53"/>
+    </row>
+    <row r="35" ht="12.75" customHeight="1">
+      <c r="G35" s="51"/>
+      <c r="H35" s="51"/>
+      <c r="I35" s="51"/>
+    </row>
+    <row r="36" ht="12.75" customHeight="1">
+      <c r="B36" s="54"/>
+      <c r="C36" s="54"/>
+      <c r="D36" s="54"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="53"/>
+      <c r="H36" s="53"/>
+      <c r="I36" s="53"/>
+    </row>
+    <row r="37" ht="12.75" customHeight="1">
+      <c r="G37" s="53"/>
+      <c r="H37" s="53"/>
+      <c r="I37" s="53"/>
+    </row>
     <row r="38" ht="12.75" customHeight="1"/>
     <row r="39" ht="12.75" customHeight="1"/>
     <row r="40" ht="12.75" customHeight="1"/>
@@ -1437,11 +1595,20 @@
     <row r="111" ht="12.75" customHeight="1"/>
     <row r="112" ht="12.75" customHeight="1"/>
     <row r="113" ht="12.75" customHeight="1"/>
+    <row r="114" ht="12.75" customHeight="1"/>
+    <row r="115" ht="12.75" customHeight="1"/>
+    <row r="116" ht="12.75" customHeight="1"/>
+    <row r="117" ht="12.75" customHeight="1"/>
+    <row r="118" ht="12.75" customHeight="1"/>
+    <row r="119" ht="12.75" customHeight="1"/>
+    <row r="120" ht="12.75" customHeight="1"/>
+    <row r="121" ht="12.75" customHeight="1"/>
+    <row r="122" ht="12.75" customHeight="1"/>
   </sheetData>
-  <mergeCells count="15">
+  <mergeCells count="20">
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="B27:F27"/>
+    <mergeCell ref="B36:F36"/>
     <mergeCell ref="B1:I1"/>
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="F8:F9"/>
@@ -1452,8 +1619,13 @@
     <mergeCell ref="C13:E13"/>
     <mergeCell ref="B16:I16"/>
     <mergeCell ref="C17:E17"/>
-    <mergeCell ref="B20:I20"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="B21:I21"/>
+    <mergeCell ref="C22:E22"/>
+    <mergeCell ref="B25:I25"/>
+    <mergeCell ref="C26:E26"/>
+    <mergeCell ref="B29:I29"/>
+    <mergeCell ref="C30:E30"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.1965278" right="0.1965278" top="0.39375" bottom="0.39375" header="0.5118055" footer="0.5118055"/>
